--- a/Organ .xlsx
+++ b/Organ .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Organ\Organ-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9803B394-0CC5-4FF6-8D7B-1777DEA9AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9F7466-E955-4559-9474-B5EF84DCC816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25968" yWindow="3240" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>frqenzy  [Hz]</t>
   </si>
@@ -92,18 +92,25 @@
     <t xml:space="preserve">Semitones from base </t>
   </si>
   <si>
-    <t>Length (Based on primary)</t>
+    <t xml:space="preserve">Speed of sounds: </t>
   </si>
   <si>
-    <t xml:space="preserve">Speed of sounds: </t>
+    <t>Length (Based on freqentzy)  [m]</t>
+  </si>
+  <si>
+    <t>length of total pipe:</t>
+  </si>
+  <si>
+    <t>same as the colum C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,10 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +170,2154 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$C$7:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$F$7:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.37954545454545452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35824320504055185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33813655893053784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31915841215311441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30124542690760153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2843378202709157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26837916467762146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25331619959817697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23909865378686798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2256790775061982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21301268416780147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20105720086136628</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18977272727272726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17912160252027595</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16906827946526892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15957920607655721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15062271345380077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14216891013545785</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13418958233881073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12665809979908851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11954932689343399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1128395387530991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10650634208390075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10052860043068314</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.488636363636363E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9560801260137962E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4534139732634489E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9789603038278603E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5311356726900369E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.1084455067728938E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.7094791169405366E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3329049899544229E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9774663446716995E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6419769376549543E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3253171041950369E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0264300215341583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-503B-4CBD-9111-030D3105B381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1869575871"/>
+        <c:axId val="1869574431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1869575871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869574431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1869574431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869575871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>frequentsy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>length</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$C$7:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$D$7:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233.08188075904496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>246.94165062806206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.62556530059862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.18263097687208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293.66476791740757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311.12698372208092</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.62755691286992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>349.22823143300388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>369.9944227116344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>391.99543598174927</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>415.30469757994513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>466.16376151808981</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>493.88330125612413</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>523.25113060119725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>554.36526195374415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>587.32953583481515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>622.25396744416173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>659.25511382573973</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>698.45646286600777</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>739.9888454232688</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>783.99087196349842</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>830.60939515989025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>932.32752303617985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>987.76660251224803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1046.5022612023945</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1108.7305239074885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1174.6590716696301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1244.5079348883237</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1318.5102276514799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1396.9129257320155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1479.9776908465378</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1567.9817439269971</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1661.2187903197801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10AB-4AE4-832D-EC91BE3DE86B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1869575871"/>
+        <c:axId val="1869574431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1869575871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869574431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1869574431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869575871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435426</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>413655</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C802413-B800-8C32-F29D-16311D6A77AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A483BA4B-0317-47B0-8A9E-3F2B8EE409AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M42"/>
+  <dimension ref="A3:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,13 +2595,13 @@
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,12 +2613,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -471,29 +2631,29 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
-        <v>1</v>
+        <f>I6+1</f>
+        <v>2</v>
       </c>
       <c r="K6">
         <f>J6+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <f>K6+1</f>
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>L6+1</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -507,8 +2667,23 @@
         <f>B3</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <f>$B$4/(4*D7)</f>
+        <v>0.37954545454545452</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <f>(2*J$6-1)*$B$4/(4*$F7)</f>
+        <v>660</v>
+      </c>
+      <c r="K7">
+        <f>(2*K$6-1)*$B$4/(4*$F7)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -520,138 +2695,270 @@
         <f>$D$7*2^(C8/12)</f>
         <v>233.08188075904496</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F42" si="0">$B$4/(4*D8)</f>
+        <v>0.35824320504055185</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:K42" si="1">(2*J$6-1)*$B$4/(4*$F8)</f>
+        <v>699.24564227713483</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1165.4094037952248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C42" si="0">C8+1</f>
+        <f t="shared" ref="C9:C42" si="2">C8+1</f>
         <v>2</v>
       </c>
       <c r="D9" s="2">
         <f>$D$7*2^(C9/12)</f>
         <v>246.94165062806206</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.33813655893053784</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>740.82495188418625</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1234.7082531403105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D42" si="3">$D$7*2^(C10/12)</f>
+        <v>261.62556530059862</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D42" si="1">$D$7*2^(C10/12)</f>
-        <v>261.62556530059862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.31915841215311441</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>784.87669590179587</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1308.127826502993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>277.18263097687208</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>277.18263097687208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.30124542690760153</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>831.54789293061617</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1385.9131548843602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>293.66476791740757</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>293.66476791740757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.2843378202709157</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>880.99430375222266</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1468.3238395870378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>311.12698372208092</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>311.12698372208092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.26837916467762146</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>933.38095116624265</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1555.6349186104044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>329.62755691286992</v>
+      </c>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>329.62755691286992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.25331619959817697</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>988.88267073860982</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>1648.1377845643497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>349.22823143300388</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>349.22823143300388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.23909865378686798</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1047.6846942990117</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1746.1411571650194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>369.9944227116344</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>369.9944227116344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2256790775061982</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>1109.9832681349033</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1849.9721135581719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>391.99543598174927</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>391.99543598174927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.21301268416780147</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1175.9863079452477</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>1959.9771799087464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>415.30469757994513</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>415.30469757994513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20105720086136628</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1245.9140927398353</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2076.5234878997258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>A7+1</f>
         <v>4</v>
@@ -660,158 +2967,302 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D19" s="2">
         <f>$D$7*2^(C19/12)</f>
         <v>440</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18977272727272726</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>466.16376151808981</v>
+      </c>
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>466.16376151808981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17912160252027595</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1398.4912845542694</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2330.8188075904491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>493.88330125612413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16906827946526892</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1481.6499037683725</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2469.416506280621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>523.25113060119725</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>523.25113060119725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.15957920607655721</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1569.7533918035917</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2616.255653005986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>554.36526195374415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.15062271345380077</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1663.0957858612323</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>2771.8263097687204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="3"/>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>587.32953583481515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14216891013545785</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>1761.9886075044453</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2936.6476791740756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="3"/>
+        <v>622.25396744416173</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>622.25396744416173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13418958233881073</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1866.7619023324853</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>3111.2698372208088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>659.25511382573973</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>659.25511382573973</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.12665809979908851</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1977.7653414772192</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>3296.2755691286984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="3"/>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>698.45646286600777</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11954932689343399</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>2095.3693885980233</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>3492.2823143300388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>739.9888454232688</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>739.9888454232688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1128395387530991</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2219.9665362698065</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>3699.9442271163439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>783.99087196349842</v>
+      </c>
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>783.99087196349842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10650634208390075</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>2351.9726158904955</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>3919.9543598174923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>830.60939515989025</v>
+      </c>
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>830.60939515989025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10052860043068314</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>2491.8281854796705</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>4153.0469757994515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>A19+1</f>
         <v>5</v>
@@ -820,159 +3271,332 @@
         <v>5</v>
       </c>
       <c r="C31">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.488636363636363E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2640</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="3"/>
+        <v>932.32752303617985</v>
+      </c>
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>932.32752303617985</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+        <v>8.9560801260137962E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>2796.9825691085393</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>4661.637615180899</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>987.76660251224803</v>
+      </c>
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>987.76660251224803</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>8.4534139732634489E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2963.2998075367441</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>4938.8330125612401</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>1046.5022612023945</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>1046.5022612023945</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>7.9789603038278603E-2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>3139.5067836071835</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>5232.511306011972</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="3"/>
+        <v>1108.7305239074885</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>1108.7305239074885</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>7.5311356726900369E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>3326.1915717224651</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>5543.6526195374418</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="3"/>
+        <v>1174.6590716696301</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>1174.6590716696301</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>7.1084455067728938E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>3523.9772150088902</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>5873.2953583481503</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="3"/>
+        <v>1244.5079348883237</v>
+      </c>
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>1244.5079348883237</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>6.7094791169405366E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>3733.5238046649706</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>6222.5396744416175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="3"/>
+        <v>1318.5102276514799</v>
+      </c>
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>1318.5102276514799</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>6.3329049899544229E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>3955.5306829544402</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>6592.5511382574005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="3"/>
+        <v>1396.9129257320155</v>
+      </c>
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="1"/>
-        <v>1396.9129257320155</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5.9774663446716995E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>4190.7387771960466</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>6984.5646286600777</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="3"/>
+        <v>1479.9776908465378</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="1"/>
-        <v>1479.9776908465378</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5.6419769376549543E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>4439.933072539613</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>7399.8884542326887</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="3"/>
+        <v>1567.9817439269971</v>
+      </c>
+      <c r="F41" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="1"/>
-        <v>1567.9817439269971</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+        <v>5.3253171041950369E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>4703.945231780991</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>7839.9087196349856</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="3"/>
+        <v>1661.2187903197801</v>
+      </c>
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="1"/>
-        <v>1661.2187903197801</v>
-      </c>
+        <v>5.0264300215341583E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>4983.6563709593402</v>
+      </c>
+      <c r="K42">
+        <f>(2*K$6-1)*$B$4/(4*$F42)</f>
+        <v>8306.0939515988994</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+      <c r="I43">
+        <f>(2*I$6-1)*$B$4/(4*$F43)</f>
+        <v>139.16666666666669</v>
+      </c>
+      <c r="J43">
+        <f>(2*J$6-1)*$B$4/(4*$F43)</f>
+        <v>417.5</v>
+      </c>
+      <c r="K43">
+        <f>(2*K$6-1)*$B$4/(4*$F43)</f>
+        <v>695.83333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>